--- a/doc/工程表_F3.xlsx
+++ b/doc/工程表_F3.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9DEAA0-8DDB-41EB-A888-0ACC54A9B193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AC1D01-BFA9-4B9C-8242-995B78C023AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="6月1日" sheetId="4" r:id="rId1"/>
+    <sheet name="6月10日" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>年</t>
   </si>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>髙林隼仁</t>
-  </si>
-  <si>
-    <t>髙林隼仁</t>
     <rPh sb="0" eb="4">
       <t>タカバヤシハヤトジン</t>
     </rPh>
@@ -254,9 +251,6 @@
     <t>品質管理担当：松本美空</t>
   </si>
   <si>
-    <t>発表担当：内田歩輝</t>
-  </si>
-  <si>
     <r>
       <t>DBA</t>
     </r>
@@ -273,17 +267,7 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>中尾順仁</t>
-  </si>
-  <si>
     <t>構成管理担当：古晒悠誠</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>古晒悠誠</t>
-  </si>
-  <si>
-    <t>髙林隼仁</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -311,6 +295,53 @@
   </si>
   <si>
     <t>Beans</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>DAO</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Servlet</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>JSP</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>JavaScpript</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>発表担当：内田歩輝</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>内田</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>髙林</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>古晒</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>中尾</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>100%(仮)</t>
+    <rPh sb="5" eb="6">
+      <t>カリ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -405,7 +436,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,12 +451,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDD6EE"/>
-        <bgColor rgb="FFBDD6EE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFAEABAB"/>
         <bgColor rgb="FFAEABAB"/>
       </patternFill>
@@ -434,12 +459,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor rgb="FFBDD6EE"/>
       </patternFill>
     </fill>
     <fill>
@@ -670,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -707,12 +726,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,13 +735,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -746,52 +753,34 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -803,9 +792,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,6 +802,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -833,35 +822,56 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,355 +964,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1313180" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61996045-F721-41A3-A50D-97A5766E1729}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3124200" y="5476875"/>
-          <a:ext cx="1313180" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>デザイン流し込み</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="889987" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00D9AB6-28FD-4867-901B-2BFE853A045B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8515350" y="6972300"/>
-          <a:ext cx="889987" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>リハーサル</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2582758" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D3498F-BF17-4321-AD50-E032B1580B77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3629025" y="6019800"/>
-          <a:ext cx="2582758" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>デザイン＆プログラムのコーディング</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1313180" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED2A5065-17CE-4378-B6D8-39A61C8A4D93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="6324600"/>
-          <a:ext cx="1313180" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>デザイン流し込み</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1313180" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84D51F4-F278-4BA4-BE66-D14CF167FD60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="6591300"/>
-          <a:ext cx="1313180" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>デザイン流し込み</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C28596-661F-438B-BA7F-6A82C3A2E2A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3990975" y="4905375"/>
-          <a:ext cx="184731" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="825867"/>
     <xdr:sp macro="" textlink="">
@@ -1318,7 +983,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1885950" y="3771900"/>
+          <a:off x="1695450" y="3752850"/>
           <a:ext cx="889987" cy="825867"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1370,180 +1035,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>内部設計</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1031051" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E0DF0F7-34E4-494E-A953-51375208D94F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3914775" y="4029075"/>
-          <a:ext cx="1031051" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コーディング</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1031051" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506D7FAD-6B87-4354-9FFC-EF870D30C532}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5391150" y="4029075"/>
-          <a:ext cx="1031051" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コーディング</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1313180" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E931A544-B207-4A42-AC62-3F4ABD61BFB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7686675" y="4038600"/>
-          <a:ext cx="1313180" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コーディング調整</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1610,18 +1101,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="889987" cy="275717"/>
+    <xdr:ext cx="748923" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB932798-57C1-4F7B-8042-DDAE16483D9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95725875-B090-49DF-BE96-2C9B4185EF26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1629,8 +1120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7400925" y="6962775"/>
-          <a:ext cx="889987" cy="275717"/>
+          <a:off x="9163050" y="6648450"/>
+          <a:ext cx="748923" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1659,65 +1150,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>品質テスト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1313180" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E29676-78BC-4DA6-AF35-A7E0D8B61CFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5600700" y="5476875"/>
-          <a:ext cx="1313180" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>デザイン流し込み</a:t>
+            <a:t>資料作成</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1925,23 +1358,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F461FB36-AA5C-4255-9DAB-20DEB8CADCD8}">
-  <dimension ref="A1:AN1001"/>
+  <dimension ref="A1:AN1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:F20"/>
+      <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="23" customWidth="1"/>
-    <col min="2" max="5" width="3" style="15" customWidth="1"/>
-    <col min="6" max="6" width="3.375" style="15" customWidth="1"/>
-    <col min="7" max="36" width="3.75" style="15" customWidth="1"/>
-    <col min="37" max="37" width="3.625" style="15" customWidth="1"/>
-    <col min="38" max="38" width="11.375" style="15" customWidth="1"/>
-    <col min="39" max="39" width="10.5" style="23" customWidth="1"/>
-    <col min="40" max="40" width="11.5" style="15" customWidth="1"/>
-    <col min="41" max="16384" width="14.375" style="15"/>
+    <col min="1" max="1" width="6.5" style="19" customWidth="1"/>
+    <col min="2" max="5" width="3" style="13" customWidth="1"/>
+    <col min="6" max="6" width="3.375" style="13" customWidth="1"/>
+    <col min="7" max="36" width="3.75" style="13" customWidth="1"/>
+    <col min="37" max="37" width="3.625" style="13" customWidth="1"/>
+    <col min="38" max="38" width="11.375" style="13" customWidth="1"/>
+    <col min="39" max="39" width="10.5" style="19" customWidth="1"/>
+    <col min="40" max="40" width="11.5" style="13" customWidth="1"/>
+    <col min="41" max="16384" width="14.375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="16.5" customHeight="1">
@@ -1983,19 +1416,19 @@
       <c r="AK1" s="2"/>
     </row>
     <row r="2" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B2" s="38">
+      <c r="B2" s="52">
         <v>2022</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="52">
         <v>6</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="4"/>
@@ -2069,56 +1502,56 @@
       <c r="AK3" s="3"/>
     </row>
     <row r="4" spans="1:40" ht="19.5" customHeight="1">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="40" t="s">
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="55">
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="45">
         <v>44722</v>
       </c>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="40" t="s">
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="42"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="32"/>
     </row>
     <row r="5" spans="1:40" ht="18.75" customHeight="1">
       <c r="B5" s="2"/>
@@ -2159,53 +1592,53 @@
       <c r="AK5" s="2"/>
     </row>
     <row r="6" spans="1:40" ht="18.75" customHeight="1">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="43">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="41"/>
-      <c r="AK6" s="42"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="32"/>
     </row>
     <row r="7" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B7" s="48"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="49"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
@@ -2335,10 +1768,10 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
@@ -2462,41 +1895,41 @@
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="AK8" s="20" t="str">
+      <c r="AK8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="AL8" s="22" t="s">
+      <c r="AL8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AM8" s="22" t="s">
+      <c r="AM8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AN8" s="22" t="s">
+      <c r="AN8" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
@@ -2517,36 +1950,36 @@
       <c r="AH9" s="11"/>
       <c r="AI9" s="11"/>
       <c r="AJ9" s="11"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="22" t="s">
-        <v>41</v>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="18" t="s">
+        <v>53</v>
       </c>
-      <c r="AM9" s="22" t="s">
-        <v>33</v>
+      <c r="AM9" s="18" t="s">
+        <v>51</v>
       </c>
-      <c r="AN9" s="24">
+      <c r="AN9" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="11"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -2567,26 +2000,26 @@
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
       <c r="AJ10" s="11"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="22" t="s">
-        <v>43</v>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="18" t="s">
+        <v>52</v>
       </c>
-      <c r="AM10" s="22" t="s">
-        <v>33</v>
+      <c r="AM10" s="18" t="s">
+        <v>51</v>
       </c>
-      <c r="AN10" s="24">
+      <c r="AN10" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -2594,9 +2027,9 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="11"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="24"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -2617,24 +2050,24 @@
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="22" t="s">
-        <v>44</v>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="18" t="s">
+        <v>51</v>
       </c>
-      <c r="AM11" s="22"/>
-      <c r="AN11" s="24">
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -2649,40 +2082,40 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
       <c r="AI12" s="11"/>
       <c r="AJ12" s="11"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="22" t="s">
-        <v>46</v>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="18" t="s">
+        <v>41</v>
       </c>
-      <c r="AM12" s="22"/>
-      <c r="AN12" s="24">
-        <v>1</v>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="20">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -2706,41 +2139,39 @@
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
-      <c r="AD13" s="16"/>
+      <c r="AD13" s="14"/>
       <c r="AE13" s="11"/>
       <c r="AF13" s="11"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="19"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="15"/>
       <c r="AJ13" s="11"/>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="22" t="s">
-        <v>46</v>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="20">
+        <v>0</v>
       </c>
-      <c r="AM13" s="22"/>
-      <c r="AN13" s="24">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
@@ -2763,36 +2194,36 @@
       <c r="AH14" s="11"/>
       <c r="AI14" s="11"/>
       <c r="AJ14" s="11"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="22" t="s">
-        <v>45</v>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="18" t="s">
+        <v>40</v>
       </c>
-      <c r="AM14" s="22"/>
-      <c r="AN14" s="24">
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
@@ -2811,91 +2242,91 @@
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
       <c r="AJ15" s="11"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="22" t="s">
-        <v>45</v>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="18" t="s">
+        <v>40</v>
       </c>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="24">
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="22" t="s">
-        <v>47</v>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="18" t="s">
+        <v>40</v>
       </c>
-      <c r="AM16" s="22"/>
-      <c r="AN16" s="24">
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
       <c r="AB17" s="11"/>
@@ -2907,26 +2338,26 @@
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
       <c r="AJ17" s="11"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="22" t="s">
-        <v>46</v>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="18" t="s">
+        <v>41</v>
       </c>
-      <c r="AM17" s="22"/>
-      <c r="AN17" s="24">
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -2957,24 +2388,24 @@
       <c r="AH18" s="11"/>
       <c r="AI18" s="11"/>
       <c r="AJ18" s="11"/>
-      <c r="AK18" s="21"/>
-      <c r="AL18" s="22" t="s">
-        <v>46</v>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="18" t="s">
+        <v>41</v>
       </c>
-      <c r="AM18" s="22"/>
-      <c r="AN18" s="24">
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="62" t="s">
-        <v>48</v>
+      <c r="A19" s="51"/>
+      <c r="B19" s="58" t="s">
+        <v>43</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="63"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -2982,18 +2413,18 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
       <c r="Z19" s="11"/>
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
@@ -3005,20 +2436,24 @@
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
       <c r="AJ19" s="11"/>
-      <c r="AK19" s="21"/>
-      <c r="AL19" s="22"/>
-      <c r="AM19" s="22"/>
-      <c r="AN19" s="24">
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -3026,14 +2461,14 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -3049,20 +2484,24 @@
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
       <c r="AJ20" s="11"/>
-      <c r="AK20" s="21"/>
-      <c r="AL20" s="22"/>
-      <c r="AM20" s="22"/>
-      <c r="AN20" s="24">
-        <v>1</v>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="18" t="s">
+        <v>41</v>
       </c>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="60" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -3070,17 +2509,17 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
       <c r="AA21" s="11"/>
@@ -3093,64 +2532,76 @@
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
       <c r="AJ21" s="11"/>
-      <c r="AK21" s="21"/>
-      <c r="AL21" s="22"/>
-      <c r="AM21" s="22"/>
-      <c r="AN21" s="24">
-        <v>1</v>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="18" t="s">
+        <v>50</v>
       </c>
+      <c r="AM21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN21" s="20">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="22" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
       <c r="AG22" s="11"/>
       <c r="AH22" s="11"/>
-      <c r="AI22" s="19"/>
+      <c r="AI22" s="11"/>
       <c r="AJ22" s="11"/>
-      <c r="AK22" s="21"/>
-      <c r="AL22" s="22"/>
-      <c r="AM22" s="22"/>
-      <c r="AN22" s="24">
-        <v>1</v>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="18" t="s">
+        <v>42</v>
       </c>
+      <c r="AM22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN22" s="20">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="23" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -3158,43 +2609,49 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
       <c r="AJ23" s="11"/>
-      <c r="AK23" s="21"/>
-      <c r="AL23" s="22"/>
-      <c r="AM23" s="22"/>
-      <c r="AN23" s="24">
-        <v>1</v>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="18" t="s">
+        <v>42</v>
       </c>
+      <c r="AM23" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN23" s="20">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="24" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -3206,134 +2663,141 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
       <c r="AJ24" s="11"/>
-      <c r="AK24" s="21"/>
-      <c r="AL24" s="22"/>
-      <c r="AM24" s="22"/>
-      <c r="AN24" s="24">
-        <v>1</v>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="18" t="s">
+        <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
+      <c r="AM24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN24" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" ht="30.75" customHeight="1">
+      <c r="A25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
       <c r="AA25" s="11"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="11"/>
-      <c r="AK25" s="21"/>
-      <c r="AL25" s="22"/>
-      <c r="AM25" s="22"/>
-      <c r="AN25" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" ht="30.75" customHeight="1">
-      <c r="A26" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="19"/>
-      <c r="AJ26" s="31" t="s">
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AK26" s="21"/>
-      <c r="AL26" s="22"/>
-      <c r="AM26" s="22"/>
-      <c r="AN26" s="24">
-        <v>1</v>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="18" t="s">
+        <v>50</v>
       </c>
+      <c r="AM25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN25" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" ht="22.5" customHeight="1">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
     </row>
     <row r="27" spans="1:40" ht="22.5" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -3365,17 +2829,17 @@
       <c r="AK27" s="3"/>
     </row>
     <row r="28" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A28" s="26" t="s">
-        <v>26</v>
+      <c r="A28" s="23"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="30" t="s">
+        <v>27</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="60" t="s">
-        <v>36</v>
+      <c r="H28" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -3408,17 +2872,17 @@
       <c r="AK28" s="3"/>
     </row>
     <row r="29" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A29" s="27"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="58" t="s">
-        <v>27</v>
+      <c r="C29" s="30" t="s">
+        <v>28</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="60" t="s">
-        <v>40</v>
+      <c r="H29" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -3451,17 +2915,17 @@
       <c r="AK29" s="3"/>
     </row>
     <row r="30" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A30" s="28"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="58" t="s">
-        <v>28</v>
+      <c r="C30" s="30" t="s">
+        <v>29</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="61" t="s">
-        <v>42</v>
+      <c r="H30" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -3494,16 +2958,16 @@
       <c r="AK30" s="3"/>
     </row>
     <row r="31" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A31" s="29"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="58" t="s">
-        <v>29</v>
+      <c r="C31" s="30" t="s">
+        <v>30</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="60" t="s">
+      <c r="H31" s="28" t="s">
         <v>37</v>
       </c>
       <c r="I31" s="3"/>
@@ -3537,17 +3001,14 @@
       <c r="AK31" s="3"/>
     </row>
     <row r="32" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A32" s="30"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="60" t="s">
-        <v>38</v>
+      <c r="H32" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -3586,9 +3047,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="60" t="s">
-        <v>39</v>
-      </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -40365,58 +39824,23 @@
       <c r="AJ1000" s="3"/>
       <c r="AK1000" s="3"/>
     </row>
-    <row r="1001" spans="2:37" ht="22.5" customHeight="1">
-      <c r="B1001" s="3"/>
-      <c r="C1001" s="3"/>
-      <c r="D1001" s="3"/>
-      <c r="E1001" s="3"/>
-      <c r="F1001" s="3"/>
-      <c r="G1001" s="3"/>
-      <c r="H1001" s="3"/>
-      <c r="I1001" s="3"/>
-      <c r="J1001" s="3"/>
-      <c r="K1001" s="3"/>
-      <c r="L1001" s="3"/>
-      <c r="M1001" s="3"/>
-      <c r="N1001" s="3"/>
-      <c r="O1001" s="3"/>
-      <c r="P1001" s="3"/>
-      <c r="Q1001" s="3"/>
-      <c r="R1001" s="3"/>
-      <c r="S1001" s="3"/>
-      <c r="T1001" s="3"/>
-      <c r="U1001" s="3"/>
-      <c r="V1001" s="3"/>
-      <c r="W1001" s="3"/>
-      <c r="X1001" s="3"/>
-      <c r="Y1001" s="3"/>
-      <c r="Z1001" s="3"/>
-      <c r="AA1001" s="3"/>
-      <c r="AB1001" s="3"/>
-      <c r="AC1001" s="3"/>
-      <c r="AD1001" s="3"/>
-      <c r="AE1001" s="3"/>
-      <c r="AF1001" s="3"/>
-      <c r="AG1001" s="3"/>
-      <c r="AH1001" s="3"/>
-      <c r="AI1001" s="3"/>
-      <c r="AJ1001" s="3"/>
-      <c r="AK1001" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
+  <mergeCells count="36">
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
     <mergeCell ref="AG4:AK4"/>
     <mergeCell ref="B6:E8"/>
     <mergeCell ref="G6:AK6"/>
@@ -40426,22 +39850,18 @@
     <mergeCell ref="T4:W4"/>
     <mergeCell ref="X4:AB4"/>
     <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
     <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7">

--- a/doc/工程表_F3.xlsx
+++ b/doc/工程表_F3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AC1D01-BFA9-4B9C-8242-995B78C023AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4BA67D-022D-4AA7-B40C-21298B080CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -780,52 +780,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -849,13 +804,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -864,14 +828,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,12 +1043,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1172116" cy="275717"/>
+    <xdr:ext cx="1724024" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="テキスト ボックス 16">
@@ -1062,8 +1062,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7743825" y="6353175"/>
-          <a:ext cx="1172116" cy="275717"/>
+          <a:off x="7000876" y="6076950"/>
+          <a:ext cx="1724024" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1085,14 +1085,25 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>プログラム調整</a:t>
+            <a:t>プログラム調整（全員）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>JavaScript</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メイン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1151,6 +1162,75 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>資料作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2152649" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D255FE8-E1A0-4155-84D7-1F54D24B71DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="5667375"/>
+          <a:ext cx="2152649" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プログラム作成（２グループ）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Servlet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作成優先</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1360,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F461FB36-AA5C-4255-9DAB-20DEB8CADCD8}">
   <dimension ref="A1:AN1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -1416,7 +1496,7 @@
       <c r="AK1" s="2"/>
     </row>
     <row r="2" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B2" s="52">
+      <c r="B2" s="37">
         <v>2022</v>
       </c>
       <c r="C2" s="38"/>
@@ -1424,7 +1504,7 @@
       <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="37">
         <v>6</v>
       </c>
       <c r="G2" s="38"/>
@@ -1502,56 +1582,56 @@
       <c r="AK3" s="3"/>
     </row>
     <row r="4" spans="1:40" ht="19.5" customHeight="1">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="44" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33" t="s">
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="44" t="s">
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="45">
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="57">
         <v>44722</v>
       </c>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="44" t="s">
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="32"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="41"/>
     </row>
     <row r="5" spans="1:40" ht="18.75" customHeight="1">
       <c r="B5" s="2"/>
@@ -1592,53 +1672,53 @@
       <c r="AK5" s="2"/>
     </row>
     <row r="6" spans="1:40" ht="18.75" customHeight="1">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="56">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="32"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="41"/>
     </row>
     <row r="7" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B7" s="37"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1768,10 +1848,10 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
@@ -1910,16 +1990,16 @@
       </c>
     </row>
     <row r="9" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -1962,14 +2042,14 @@
       </c>
     </row>
     <row r="10" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="55" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -2012,14 +2092,14 @@
       </c>
     </row>
     <row r="11" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -2060,14 +2140,14 @@
       </c>
     </row>
     <row r="12" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="55" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -2108,14 +2188,14 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="55" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -2154,16 +2234,16 @@
       </c>
     </row>
     <row r="14" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
@@ -2204,14 +2284,14 @@
       </c>
     </row>
     <row r="15" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A15" s="49"/>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -2252,14 +2332,14 @@
       </c>
     </row>
     <row r="16" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
@@ -2300,14 +2380,14 @@
       </c>
     </row>
     <row r="17" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -2348,16 +2428,16 @@
       </c>
     </row>
     <row r="18" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -2398,14 +2478,14 @@
       </c>
     </row>
     <row r="19" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A19" s="51"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -2446,14 +2526,14 @@
       </c>
     </row>
     <row r="20" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -2489,19 +2569,19 @@
         <v>41</v>
       </c>
       <c r="AM20" s="18"/>
-      <c r="AN20" s="60" t="s">
+      <c r="AN20" s="30" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -2544,14 +2624,14 @@
       </c>
     </row>
     <row r="22" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A22" s="51"/>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -2594,14 +2674,14 @@
       </c>
     </row>
     <row r="23" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A23" s="51"/>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -2644,14 +2724,14 @@
       </c>
     </row>
     <row r="24" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -2664,8 +2744,8 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
@@ -2697,13 +2777,13 @@
       <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -2831,12 +2911,12 @@
     <row r="28" spans="1:40" ht="22.5" customHeight="1">
       <c r="A28" s="23"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="3"/>
       <c r="H28" s="28" t="s">
         <v>38</v>
@@ -2874,12 +2954,12 @@
     <row r="29" spans="1:40" ht="22.5" customHeight="1">
       <c r="A29" s="24"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
       <c r="G29" s="3"/>
       <c r="H29" s="29" t="s">
         <v>39</v>
@@ -2917,12 +2997,12 @@
     <row r="30" spans="1:40" ht="22.5" customHeight="1">
       <c r="A30" s="25"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="3"/>
       <c r="H30" s="28" t="s">
         <v>36</v>
@@ -2960,12 +3040,12 @@
     <row r="31" spans="1:40" ht="22.5" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="3"/>
       <c r="H31" s="28" t="s">
         <v>37</v>
@@ -39826,6 +39906,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AK6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A24"/>
@@ -39841,27 +39941,7 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AK6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="B25:F25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7">
